--- a/Code/Results/Cases/Case_4_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_128/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.1412880393399</v>
+        <v>11.19518837836857</v>
       </c>
       <c r="C2">
-        <v>18.82804727939883</v>
+        <v>13.33274311299466</v>
       </c>
       <c r="D2">
-        <v>7.099209653903239</v>
+        <v>6.036471631099489</v>
       </c>
       <c r="E2">
-        <v>29.2865968269562</v>
+        <v>16.17844495477147</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.093650656384503</v>
+        <v>3.716816261039574</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.87565211362016</v>
+        <v>46.98928765420878</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.37835299357718</v>
+        <v>13.77841183086004</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.13617797760143</v>
+        <v>11.17945846270876</v>
       </c>
       <c r="C3">
-        <v>17.53013614581086</v>
+        <v>12.87446737151539</v>
       </c>
       <c r="D3">
-        <v>6.574312403075136</v>
+        <v>5.928187649198708</v>
       </c>
       <c r="E3">
-        <v>27.02100773974357</v>
+        <v>15.27763314239106</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.109591933144763</v>
+        <v>3.72143590021131</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.90400054096099</v>
+        <v>45.43681046224155</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.2602253119206</v>
+        <v>13.68413294089438</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.50147851262016</v>
+        <v>11.17785992256238</v>
       </c>
       <c r="C4">
-        <v>16.70732936614333</v>
+        <v>12.5878789107174</v>
       </c>
       <c r="D4">
-        <v>6.25418900764072</v>
+        <v>5.862738700480048</v>
       </c>
       <c r="E4">
-        <v>25.58248063498814</v>
+        <v>14.70269768799155</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.119427978089057</v>
+        <v>3.724406447189796</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>58.39096281799058</v>
+        <v>44.45500768617126</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.54900626202428</v>
+        <v>13.63231296142133</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.23803362711054</v>
+        <v>11.17922263987644</v>
       </c>
       <c r="C5">
-        <v>16.36536363496337</v>
+        <v>12.46996264395679</v>
       </c>
       <c r="D5">
-        <v>6.136694575837106</v>
+        <v>5.836365576645203</v>
       </c>
       <c r="E5">
-        <v>24.98345878575818</v>
+        <v>14.46319474594954</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.123457285182251</v>
+        <v>3.725650859537178</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>57.34778748800544</v>
+        <v>44.04814025889193</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.25259740530591</v>
+        <v>13.6127383608457</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.19398874481979</v>
+        <v>11.17957012473237</v>
       </c>
       <c r="C6">
-        <v>16.30817500977089</v>
+        <v>12.4503200825657</v>
       </c>
       <c r="D6">
-        <v>6.117084772862806</v>
+        <v>5.832005400147928</v>
       </c>
       <c r="E6">
-        <v>24.88319440109148</v>
+        <v>14.42311983037235</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.124127859010661</v>
+        <v>3.725859545333009</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>57.17340963072829</v>
+        <v>43.98018380810109</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.2029713979391</v>
+        <v>13.60958159494585</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.49794550381814</v>
+        <v>11.17787016485491</v>
       </c>
       <c r="C7">
-        <v>16.70274462821272</v>
+        <v>12.58629297416406</v>
       </c>
       <c r="D7">
-        <v>6.25261115633721</v>
+        <v>5.862381768816507</v>
       </c>
       <c r="E7">
-        <v>25.57445496483946</v>
+        <v>14.69948836519361</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.119482222561417</v>
+        <v>3.724423092313541</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>58.3769718126284</v>
+        <v>44.44954738989045</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.545035896452</v>
+        <v>13.63204270656754</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.79811979613212</v>
+        <v>11.18808557734818</v>
       </c>
       <c r="C8">
-        <v>18.38577799602785</v>
+        <v>13.17591325036929</v>
       </c>
       <c r="D8">
-        <v>6.920991186073526</v>
+        <v>5.998942104584263</v>
       </c>
       <c r="E8">
-        <v>28.5147005636064</v>
+        <v>15.87252782685406</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.099143029577083</v>
+        <v>3.718381393727388</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.52136845708051</v>
+        <v>46.46015884965404</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.99770445933625</v>
+        <v>13.74465619185391</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.22942715884245</v>
+        <v>11.27242842816386</v>
       </c>
       <c r="C9">
-        <v>21.5007850898678</v>
+        <v>14.28372079499504</v>
       </c>
       <c r="D9">
-        <v>8.161537981145637</v>
+        <v>6.273346988098577</v>
       </c>
       <c r="E9">
-        <v>33.95148352737053</v>
+        <v>17.98982067632706</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.059156784104211</v>
+        <v>3.707589286507261</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.0503735592207</v>
+        <v>50.16014188053964</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.67053049934924</v>
+        <v>14.01273786689276</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.98007789683677</v>
+        <v>11.37380102451482</v>
       </c>
       <c r="C10">
-        <v>23.76773269014398</v>
+        <v>15.05961644868051</v>
       </c>
       <c r="D10">
-        <v>9.022823129855345</v>
+        <v>6.476830641339252</v>
       </c>
       <c r="E10">
-        <v>37.82792933558529</v>
+        <v>19.58460887140967</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.028882868109136</v>
+        <v>3.700292409467271</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>79.77860339930194</v>
+        <v>52.71159191253102</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.56137028276435</v>
+        <v>14.2370826294095</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.77975290622469</v>
+        <v>11.42842978139915</v>
       </c>
       <c r="C11">
-        <v>24.78369186677694</v>
+        <v>15.40284085988572</v>
       </c>
       <c r="D11">
-        <v>9.407253189388729</v>
+        <v>6.569368021013387</v>
       </c>
       <c r="E11">
-        <v>39.59102224640716</v>
+        <v>20.28004451057869</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.014664908338811</v>
+        <v>3.697107639164666</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>82.80385760234907</v>
+        <v>53.83277449429655</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.41596201198106</v>
+        <v>14.34472995972216</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.08427221630001</v>
+        <v>11.45033060393105</v>
       </c>
       <c r="C12">
-        <v>25.16728044866203</v>
+        <v>15.53130507352366</v>
       </c>
       <c r="D12">
-        <v>9.552149312089538</v>
+        <v>6.604370341291475</v>
       </c>
       <c r="E12">
-        <v>40.26148299576845</v>
+        <v>20.53764025668208</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.009188651522061</v>
+        <v>3.695920811813225</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>83.9471283209778</v>
+        <v>54.25142682418722</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.73991220282793</v>
+        <v>14.38626375032252</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.01858972766255</v>
+        <v>11.44556007636047</v>
       </c>
       <c r="C13">
-        <v>25.08469791670226</v>
+        <v>15.50370662637749</v>
       </c>
       <c r="D13">
-        <v>9.520966398156236</v>
+        <v>6.596834274323292</v>
       </c>
       <c r="E13">
-        <v>40.11690724038235</v>
+        <v>20.48241754865038</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.010372695067697</v>
+        <v>3.6961755663592</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.7009547104481</v>
+        <v>54.16152909938873</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.67010738342892</v>
+        <v>14.37728501661518</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.80476359379051</v>
+        <v>11.43020731522042</v>
       </c>
       <c r="C14">
-        <v>24.81526545338177</v>
+        <v>15.41344046958874</v>
       </c>
       <c r="D14">
-        <v>9.41918495491249</v>
+        <v>6.572248673992219</v>
       </c>
       <c r="E14">
-        <v>39.64610560090407</v>
+        <v>20.30135209712868</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.014216410400051</v>
+        <v>3.697009614892395</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>82.89794292075327</v>
+        <v>53.86733707690187</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.44259926583422</v>
+        <v>14.34813173740464</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.6740523729603</v>
+        <v>11.42096104767676</v>
       </c>
       <c r="C15">
-        <v>24.65011945979223</v>
+        <v>15.35795055821692</v>
       </c>
       <c r="D15">
-        <v>9.356765416014808</v>
+        <v>6.557183102457896</v>
       </c>
       <c r="E15">
-        <v>39.35819191949575</v>
+        <v>20.18969652658837</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.016557821948477</v>
+        <v>3.6975229855798</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.40586844889657</v>
+        <v>53.68635909931058</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.30332650950103</v>
+        <v>14.33037375863331</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.92798107665604</v>
+        <v>11.37040144714465</v>
       </c>
       <c r="C16">
-        <v>23.70111428457843</v>
+        <v>15.03698054671242</v>
       </c>
       <c r="D16">
-        <v>8.997581795284978</v>
+        <v>6.470779466292374</v>
       </c>
       <c r="E16">
-        <v>37.71292712402637</v>
+        <v>19.53835368941189</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.029800835623053</v>
+        <v>3.700503235015666</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>79.58040109591296</v>
+        <v>52.63750449049469</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.50549910011795</v>
+        <v>14.23015728045499</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.47190968108623</v>
+        <v>11.34155938989409</v>
       </c>
       <c r="C17">
-        <v>23.11568582723559</v>
+        <v>14.83750187384691</v>
       </c>
       <c r="D17">
-        <v>8.775588530751531</v>
+        <v>6.417740641700538</v>
       </c>
       <c r="E17">
-        <v>36.70532340711586</v>
+        <v>19.12849190017381</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.03779298389337</v>
+        <v>3.702365870999141</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>77.83971496863748</v>
+        <v>51.98377474564732</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.01535168831578</v>
+        <v>14.17008632625375</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.20981035629695</v>
+        <v>11.32577243395015</v>
       </c>
       <c r="C18">
-        <v>22.77744591291194</v>
+        <v>14.72185634086774</v>
       </c>
       <c r="D18">
-        <v>8.647182430598257</v>
+        <v>6.387233478731978</v>
       </c>
       <c r="E18">
-        <v>36.12553579706355</v>
+        <v>18.88895842463062</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.042349902974627</v>
+        <v>3.703449891539042</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>76.83497469818886</v>
+        <v>51.60406239483179</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.73282598405092</v>
+        <v>14.1360635957903</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.12107367300825</v>
+        <v>11.32056527117537</v>
       </c>
       <c r="C19">
-        <v>22.66263523825172</v>
+        <v>14.68254783508937</v>
       </c>
       <c r="D19">
-        <v>8.603572298108082</v>
+        <v>6.376905274916819</v>
       </c>
       <c r="E19">
-        <v>35.92911372039877</v>
+        <v>18.80720407624201</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.04388667378291</v>
+        <v>3.703819105851589</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.49410661300656</v>
+        <v>51.47486982370724</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.63703365467716</v>
+        <v>14.12463585760592</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.52042853780037</v>
+        <v>11.3445467093398</v>
       </c>
       <c r="C20">
-        <v>23.17815588168747</v>
+        <v>14.85883179159204</v>
       </c>
       <c r="D20">
-        <v>8.799292298414073</v>
+        <v>6.423387042708057</v>
       </c>
       <c r="E20">
-        <v>36.81259124780835</v>
+        <v>19.17251454462003</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.036946520849251</v>
+        <v>3.702166279034726</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.02536321995845</v>
+        <v>52.05375058658232</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.06758414044335</v>
+        <v>14.17642652515161</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.86751192179393</v>
+        <v>11.43468394365751</v>
       </c>
       <c r="C21">
-        <v>24.89442504937264</v>
+        <v>15.43999553263804</v>
       </c>
       <c r="D21">
-        <v>9.449095533066377</v>
+        <v>6.579471410145349</v>
       </c>
       <c r="E21">
-        <v>39.78428800182287</v>
+        <v>20.35469117144591</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.013090183603039</v>
+        <v>3.696764115639797</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.13384381269931</v>
+        <v>53.95391068655386</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.50940423198687</v>
+        <v>14.35667414250225</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.7586564652057</v>
+        <v>11.50066307846983</v>
       </c>
       <c r="C22">
-        <v>26.01023835730897</v>
+        <v>15.81099222526644</v>
       </c>
       <c r="D22">
-        <v>9.870076938283079</v>
+        <v>6.681235542611192</v>
       </c>
       <c r="E22">
-        <v>41.74488721935529</v>
+        <v>21.09381076533053</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.996941846794178</v>
+        <v>3.693345177149544</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>86.46092245131759</v>
+        <v>55.16120722522145</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.45444499306919</v>
+        <v>14.47894801602405</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.28155206014794</v>
+        <v>11.46480630468733</v>
       </c>
       <c r="C23">
-        <v>25.41480753043874</v>
+        <v>15.6138242774589</v>
       </c>
       <c r="D23">
-        <v>9.645576204804971</v>
+        <v>6.626955941807563</v>
       </c>
       <c r="E23">
-        <v>40.6956076558771</v>
+        <v>20.70238129746628</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.00562294131136</v>
+        <v>3.695159769818562</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>84.68510819386709</v>
+        <v>54.52008418879771</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.9493468086765</v>
+        <v>14.41329068662358</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.49849293211611</v>
+        <v>11.34319366609603</v>
       </c>
       <c r="C24">
-        <v>23.14991844567954</v>
+        <v>14.84919152571773</v>
       </c>
       <c r="D24">
-        <v>8.78857827949977</v>
+        <v>6.420834347067624</v>
       </c>
       <c r="E24">
-        <v>36.7640972270995</v>
+        <v>19.15262405287433</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.037329322751251</v>
+        <v>3.70225647353804</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>77.94144429145248</v>
+        <v>52.02212655850341</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.04397221453482</v>
+        <v>14.17355852122423</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.58105090650386</v>
+        <v>11.24268951553283</v>
       </c>
       <c r="C25">
-        <v>20.67089868740305</v>
+        <v>13.9901487939739</v>
       </c>
       <c r="D25">
-        <v>7.835744425158072</v>
+        <v>6.198630158965843</v>
       </c>
       <c r="E25">
-        <v>32.50844382202276</v>
+        <v>17.43783091395043</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.070060759082122</v>
+        <v>3.710397005347751</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.52673265294474</v>
+        <v>49.18728391713557</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.96315444742054</v>
+        <v>13.93529155745979</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_128/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.19518837836857</v>
+        <v>12.14128803933987</v>
       </c>
       <c r="C2">
-        <v>13.33274311299466</v>
+        <v>18.82804727939896</v>
       </c>
       <c r="D2">
-        <v>6.036471631099489</v>
+        <v>7.099209653903253</v>
       </c>
       <c r="E2">
-        <v>16.17844495477147</v>
+        <v>29.28659682695628</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.716816261039574</v>
+        <v>2.093650656384345</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>46.98928765420878</v>
+        <v>64.8756521136205</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.77841183086004</v>
+        <v>14.3783529935772</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.17945846270876</v>
+        <v>11.13617797760144</v>
       </c>
       <c r="C3">
-        <v>12.87446737151539</v>
+        <v>17.53013614581106</v>
       </c>
       <c r="D3">
-        <v>5.928187649198708</v>
+        <v>6.574312403075195</v>
       </c>
       <c r="E3">
-        <v>15.27763314239106</v>
+        <v>27.02100773974367</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.72143590021131</v>
+        <v>2.109591933144533</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>45.43681046224155</v>
+        <v>60.90400054096177</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.68413294089438</v>
+        <v>13.26022531192072</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.17785992256238</v>
+        <v>10.50147851262022</v>
       </c>
       <c r="C4">
-        <v>12.5878789107174</v>
+        <v>16.7073293661433</v>
       </c>
       <c r="D4">
-        <v>5.862738700480048</v>
+        <v>6.254189007640718</v>
       </c>
       <c r="E4">
-        <v>14.70269768799155</v>
+        <v>25.5824806349882</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.724406447189796</v>
+        <v>2.119427978089321</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>44.45500768617126</v>
+        <v>58.39096281799082</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.63231296142133</v>
+        <v>12.54900626202437</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.17922263987644</v>
+        <v>10.23803362711075</v>
       </c>
       <c r="C5">
-        <v>12.46996264395679</v>
+        <v>16.36536363496345</v>
       </c>
       <c r="D5">
-        <v>5.836365576645203</v>
+        <v>6.136694575837158</v>
       </c>
       <c r="E5">
-        <v>14.46319474594954</v>
+        <v>24.98345878575806</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.725650859537178</v>
+        <v>2.123457285182528</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>44.04814025889193</v>
+        <v>57.34778748800595</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.6127383608457</v>
+        <v>12.25259740530607</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.17957012473237</v>
+        <v>10.19398874481975</v>
       </c>
       <c r="C6">
-        <v>12.4503200825657</v>
+        <v>16.30817500977093</v>
       </c>
       <c r="D6">
-        <v>5.832005400147928</v>
+        <v>6.117084772862875</v>
       </c>
       <c r="E6">
-        <v>14.42311983037235</v>
+        <v>24.88319440109148</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.725859545333009</v>
+        <v>2.124127859010152</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>43.98018380810109</v>
+        <v>57.17340963072868</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.60958159494585</v>
+        <v>12.20297139793909</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17787016485491</v>
+        <v>10.49794550381797</v>
       </c>
       <c r="C7">
-        <v>12.58629297416406</v>
+        <v>16.70274462821268</v>
       </c>
       <c r="D7">
-        <v>5.862381768816507</v>
+        <v>6.252611156337243</v>
       </c>
       <c r="E7">
-        <v>14.69948836519361</v>
+        <v>25.57445496483934</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.724423092313541</v>
+        <v>2.119482222561453</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>44.44954738989045</v>
+        <v>58.37697181262828</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.63204270656754</v>
+        <v>12.54503589645191</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.18808557734818</v>
+        <v>11.79811979613205</v>
       </c>
       <c r="C8">
-        <v>13.17591325036929</v>
+        <v>18.38577799602785</v>
       </c>
       <c r="D8">
-        <v>5.998942104584263</v>
+        <v>6.920991186073507</v>
       </c>
       <c r="E8">
-        <v>15.87252782685406</v>
+        <v>28.51470056360655</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.718381393727388</v>
+        <v>2.099143029577211</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>46.46015884965404</v>
+        <v>63.5213684570806</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.74465619185391</v>
+        <v>13.99770445933623</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.27242842816386</v>
+        <v>14.22942715884265</v>
       </c>
       <c r="C9">
-        <v>14.28372079499504</v>
+        <v>21.50078508986795</v>
       </c>
       <c r="D9">
-        <v>6.273346988098577</v>
+        <v>8.161537981145715</v>
       </c>
       <c r="E9">
-        <v>17.98982067632706</v>
+        <v>33.95148352737062</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.707589286507261</v>
+        <v>2.059156784104102</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>50.16014188053964</v>
+        <v>73.0503735592215</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.01273786689276</v>
+        <v>16.67053049934935</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.37380102451482</v>
+        <v>15.98007789683662</v>
       </c>
       <c r="C10">
-        <v>15.05961644868051</v>
+        <v>23.76773269014406</v>
       </c>
       <c r="D10">
-        <v>6.476830641339252</v>
+        <v>9.022823129855382</v>
       </c>
       <c r="E10">
-        <v>19.58460887140967</v>
+        <v>37.82792933558506</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.700292409467271</v>
+        <v>2.028882868109148</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>52.71159191253102</v>
+        <v>79.77860339930123</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.2370826294095</v>
+        <v>18.56137028276431</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.42842978139915</v>
+        <v>16.77975290622454</v>
       </c>
       <c r="C11">
-        <v>15.40284085988572</v>
+        <v>24.78369186677691</v>
       </c>
       <c r="D11">
-        <v>6.569368021013387</v>
+        <v>9.40725318938888</v>
       </c>
       <c r="E11">
-        <v>20.28004451057869</v>
+        <v>39.59102224640697</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.697107639164666</v>
+        <v>2.014664908338836</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>53.83277449429655</v>
+        <v>82.80385760234908</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.34472995972216</v>
+        <v>19.41596201198093</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.45033060393105</v>
+        <v>17.08427221629994</v>
       </c>
       <c r="C12">
-        <v>15.53130507352366</v>
+        <v>25.16728044866185</v>
       </c>
       <c r="D12">
-        <v>6.604370341291475</v>
+        <v>9.552149312089524</v>
       </c>
       <c r="E12">
-        <v>20.53764025668208</v>
+        <v>40.26148299576877</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.695920811813225</v>
+        <v>2.009188651522087</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>54.25142682418722</v>
+        <v>83.9471283209774</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.38626375032252</v>
+        <v>19.7399122028278</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.44556007636047</v>
+        <v>17.01858972766239</v>
       </c>
       <c r="C13">
-        <v>15.50370662637749</v>
+        <v>25.08469791670191</v>
       </c>
       <c r="D13">
-        <v>6.596834274323292</v>
+        <v>9.520966398156064</v>
       </c>
       <c r="E13">
-        <v>20.48241754865038</v>
+        <v>40.11690724038234</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.6961755663592</v>
+        <v>2.010372695067697</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>54.16152909938873</v>
+        <v>83.70095471044675</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.37728501661518</v>
+        <v>19.67010738342868</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.43020731522042</v>
+        <v>16.80476359379037</v>
       </c>
       <c r="C14">
-        <v>15.41344046958874</v>
+        <v>24.81526545338152</v>
       </c>
       <c r="D14">
-        <v>6.572248673992219</v>
+        <v>9.419184954912431</v>
       </c>
       <c r="E14">
-        <v>20.30135209712868</v>
+        <v>39.64610560090406</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.697009614892395</v>
+        <v>2.014216410400024</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>53.86733707690187</v>
+        <v>82.89794292075253</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.34813173740464</v>
+        <v>19.44259926583409</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.42096104767676</v>
+        <v>16.67405237296031</v>
       </c>
       <c r="C15">
-        <v>15.35795055821692</v>
+        <v>24.65011945979209</v>
       </c>
       <c r="D15">
-        <v>6.557183102457896</v>
+        <v>9.356765416014696</v>
       </c>
       <c r="E15">
-        <v>20.18969652658837</v>
+        <v>39.35819191949568</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.6975229855798</v>
+        <v>2.016557821948503</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>53.68635909931058</v>
+        <v>82.4058684488966</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.33037375863331</v>
+        <v>19.30332650950103</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.37040144714465</v>
+        <v>15.9279810766563</v>
       </c>
       <c r="C16">
-        <v>15.03698054671242</v>
+        <v>23.7011142845783</v>
       </c>
       <c r="D16">
-        <v>6.470779466292374</v>
+        <v>8.997581795285058</v>
       </c>
       <c r="E16">
-        <v>19.53835368941189</v>
+        <v>37.71292712402639</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.700503235015666</v>
+        <v>2.029800835623129</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>52.63750449049469</v>
+        <v>79.5804010959129</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.23015728045499</v>
+        <v>18.50549910011807</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.34155938989409</v>
+        <v>15.47190968108611</v>
       </c>
       <c r="C17">
-        <v>14.83750187384691</v>
+        <v>23.11568582723562</v>
       </c>
       <c r="D17">
-        <v>6.417740641700538</v>
+        <v>8.775588530751492</v>
       </c>
       <c r="E17">
-        <v>19.12849190017381</v>
+        <v>36.70532340711576</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.702365870999141</v>
+        <v>2.037792983893345</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>51.98377474564732</v>
+        <v>77.83971496863769</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.17008632625375</v>
+        <v>18.01535168831573</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.32577243395015</v>
+        <v>15.2098103562972</v>
       </c>
       <c r="C18">
-        <v>14.72185634086774</v>
+        <v>22.77744591291193</v>
       </c>
       <c r="D18">
-        <v>6.387233478731978</v>
+        <v>8.647182430598258</v>
       </c>
       <c r="E18">
-        <v>18.88895842463062</v>
+        <v>36.12553579706352</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.703449891539042</v>
+        <v>2.04234990297459</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>51.60406239483179</v>
+        <v>76.83497469818951</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.1360635957903</v>
+        <v>17.7328259840511</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.32056527117537</v>
+        <v>15.12107367300836</v>
       </c>
       <c r="C19">
-        <v>14.68254783508937</v>
+        <v>22.66263523825199</v>
       </c>
       <c r="D19">
-        <v>6.376905274916819</v>
+        <v>8.603572298108284</v>
       </c>
       <c r="E19">
-        <v>18.80720407624201</v>
+        <v>35.92911372039889</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.703819105851589</v>
+        <v>2.043886673782612</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>51.47486982370724</v>
+        <v>76.49410661300725</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.12463585760592</v>
+        <v>17.63703365467729</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.3445467093398</v>
+        <v>15.52042853780045</v>
       </c>
       <c r="C20">
-        <v>14.85883179159204</v>
+        <v>23.17815588168731</v>
       </c>
       <c r="D20">
-        <v>6.423387042708057</v>
+        <v>8.799292298414075</v>
       </c>
       <c r="E20">
-        <v>19.17251454462003</v>
+        <v>36.81259124780831</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.702166279034726</v>
+        <v>2.036946520849388</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>52.05375058658232</v>
+        <v>78.02536321995849</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.17642652515161</v>
+        <v>18.06758414044332</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.43468394365751</v>
+        <v>16.86751192179387</v>
       </c>
       <c r="C21">
-        <v>15.43999553263804</v>
+        <v>24.89442504937269</v>
       </c>
       <c r="D21">
-        <v>6.579471410145349</v>
+        <v>9.44909553306637</v>
       </c>
       <c r="E21">
-        <v>20.35469117144591</v>
+        <v>39.78428800182288</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.696764115639797</v>
+        <v>2.013090183603135</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>53.95391068655386</v>
+        <v>83.13384381269836</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.35667414250225</v>
+        <v>19.50940423198684</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.50066307846983</v>
+        <v>17.75865646520598</v>
       </c>
       <c r="C22">
-        <v>15.81099222526644</v>
+        <v>26.01023835730895</v>
       </c>
       <c r="D22">
-        <v>6.681235542611192</v>
+        <v>9.87007693828302</v>
       </c>
       <c r="E22">
-        <v>21.09381076533053</v>
+        <v>41.74488721935536</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.693345177149544</v>
+        <v>1.996941846794042</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>55.16120722522145</v>
+        <v>86.46092245131825</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.47894801602405</v>
+        <v>20.4544449930693</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.46480630468733</v>
+        <v>17.28155206014792</v>
       </c>
       <c r="C23">
-        <v>15.6138242774589</v>
+        <v>25.41480753043879</v>
       </c>
       <c r="D23">
-        <v>6.626955941807563</v>
+        <v>9.645576204805069</v>
       </c>
       <c r="E23">
-        <v>20.70238129746628</v>
+        <v>40.69560765587718</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.695159769818562</v>
+        <v>2.00562294131162</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>54.52008418879771</v>
+        <v>84.68510819386729</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.41329068662358</v>
+        <v>19.94934680867651</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.34319366609603</v>
+        <v>15.4984929321161</v>
       </c>
       <c r="C24">
-        <v>14.84919152571773</v>
+        <v>23.14991844567959</v>
       </c>
       <c r="D24">
-        <v>6.420834347067624</v>
+        <v>8.788578279499825</v>
       </c>
       <c r="E24">
-        <v>19.15262405287433</v>
+        <v>36.76409722709938</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.70225647353804</v>
+        <v>2.037329322751113</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>52.02212655850341</v>
+        <v>77.94144429145244</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.17355852122423</v>
+        <v>18.04397221453474</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.24268951553283</v>
+        <v>13.58105090650382</v>
       </c>
       <c r="C25">
-        <v>13.9901487939739</v>
+        <v>20.670898687403</v>
       </c>
       <c r="D25">
-        <v>6.198630158965843</v>
+        <v>7.83574442515806</v>
       </c>
       <c r="E25">
-        <v>17.43783091395043</v>
+        <v>32.50844382202275</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.710397005347751</v>
+        <v>2.070060759082007</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>49.18728391713557</v>
+        <v>70.52673265294494</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.93529155745979</v>
+        <v>15.96315444742059</v>
       </c>
       <c r="L25">
         <v>0</v>
